--- a/config/case_data.xlsx
+++ b/config/case_data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="20565" windowHeight="12375" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="28125" windowHeight="12540" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -42,6 +42,51 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <color rgb="FF006100"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -49,29 +94,24 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color theme="0"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
       <b val="1"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -93,54 +133,22 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <b val="1"/>
-      <color theme="3"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -155,7 +163,7 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <sz val="11"/>
       <u val="single"/>
       <scheme val="minor"/>
@@ -164,15 +172,7 @@
       <name val="宋体"/>
       <charset val="0"/>
       <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -186,31 +186,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -222,13 +318,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -240,133 +330,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -380,11 +380,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -406,9 +421,29 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -442,41 +477,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -485,145 +485,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="8" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1052,10 +1052,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -1063,8 +1063,8 @@
     <col width="9" customWidth="1" style="1" min="1" max="5"/>
     <col width="16.875" customWidth="1" style="1" min="6" max="6"/>
     <col width="59.875" customWidth="1" style="1" min="7" max="7"/>
-    <col width="11.5" customWidth="1" style="1" min="8" max="9"/>
-    <col width="9" customWidth="1" style="1" min="10" max="16384"/>
+    <col width="11.5" customWidth="1" style="1" min="8" max="10"/>
+    <col width="9" customWidth="1" style="1" min="11" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="27" customHeight="1" s="3">
@@ -1110,20 +1110,25 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>预期格式</t>
+          <t>header操作</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
+          <t>预期结果方式</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
           <t>预期结果</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>result</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>失败结果</t>
         </is>
@@ -1145,7 +1150,7 @@
       </c>
       <c r="E2" s="1" t="inlineStr">
         <is>
-          <t>get</t>
+          <t>post</t>
         </is>
       </c>
       <c r="F2" s="2" t="inlineStr">
@@ -1164,17 +1169,27 @@
 }</t>
         </is>
       </c>
+      <c r="H2" s="1" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
       <c r="I2" s="1" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="J2" s="1" t="inlineStr">
+        <is>
           <t>code_message</t>
         </is>
       </c>
-      <c r="K2" s="0" t="inlineStr">
+      <c r="L2" s="0" t="inlineStr">
         <is>
           <t>失败</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" s="0" t="inlineStr">
         <is>
           <t>{"code": "902", "msg": "timestamp\u9a8c\u8bc1\u5931\u8d25"}</t>
         </is>

--- a/config/case_data.xlsx
+++ b/config/case_data.xlsx
@@ -34,20 +34,6 @@
     </font>
     <font>
       <name val="宋体"/>
-      <charset val="0"/>
-      <color theme="0"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
       <charset val="134"/>
       <b val="1"/>
       <color theme="3"/>
@@ -78,32 +64,8 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
+      <color theme="0"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -117,7 +79,8 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF006100"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -126,6 +89,14 @@
       <charset val="0"/>
       <b val="1"/>
       <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -148,34 +119,63 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <b val="1"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -186,31 +186,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -222,151 +360,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -419,6 +419,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -445,6 +460,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -453,30 +477,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -485,10 +485,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -497,133 +497,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="8" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1055,13 +1055,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
   <cols>
     <col width="9" customWidth="1" style="2" min="1" max="1"/>
     <col width="9" customWidth="1" style="1" min="2" max="4"/>
@@ -1146,8 +1146,10 @@
       </c>
     </row>
     <row r="2" ht="169" customHeight="1" s="4">
-      <c r="A2" s="2" t="n">
-        <v>1</v>
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
@@ -1157,11 +1159,6 @@
       <c r="C2" s="1" t="inlineStr">
         <is>
           <t>yes</t>
-        </is>
-      </c>
-      <c r="D2" s="1" t="inlineStr">
-        <is>
-          <t>2 &gt; code</t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr">
@@ -1284,6 +1281,18 @@
           <t>{"code": "902", "msg": "timestamp\u9a8c\u8bc1\u5931\u8d25"}</t>
         </is>
       </c>
+    </row>
+    <row r="4">
+      <c r="M4" s="0" t="n"/>
+      <c r="N4" s="0" t="n"/>
+    </row>
+    <row r="5">
+      <c r="M5" s="0" t="n"/>
+      <c r="N5" s="0" t="n"/>
+    </row>
+    <row r="6">
+      <c r="M6" s="0" t="n"/>
+      <c r="N6" s="0" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/config/case_data.xlsx
+++ b/config/case_data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="28125" windowHeight="12540" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="22368" windowHeight="9420" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -34,6 +34,65 @@
     </font>
     <font>
       <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
       <charset val="134"/>
       <b val="1"/>
       <color theme="3"/>
@@ -50,35 +109,6 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color theme="0"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
       <b val="1"/>
       <color rgb="FFFFFFFF"/>
       <sz val="11"/>
@@ -119,14 +149,14 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -146,36 +176,6 @@
       <u val="single"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -186,25 +186,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -216,13 +276,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -234,139 +354,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -377,15 +377,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -404,6 +395,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -415,6 +415,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -466,17 +477,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -485,10 +485,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -497,37 +497,34 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1">
@@ -536,94 +533,97 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1058,17 +1058,17 @@
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5"/>
   <cols>
     <col width="9" customWidth="1" style="2" min="1" max="1"/>
     <col width="9" customWidth="1" style="1" min="2" max="4"/>
     <col width="9" customWidth="1" style="2" min="5" max="5"/>
     <col width="9" customWidth="1" style="1" min="6" max="6"/>
-    <col width="16.8833333333333" customWidth="1" style="1" min="7" max="7"/>
-    <col width="59.8833333333333" customWidth="1" style="1" min="8" max="8"/>
+    <col width="16.8796296296296" customWidth="1" style="1" min="7" max="7"/>
+    <col width="59.8796296296296" customWidth="1" style="1" min="8" max="8"/>
     <col width="11.5" customWidth="1" style="1" min="9" max="11"/>
     <col width="9" customWidth="1" style="1" min="12" max="16384"/>
   </cols>
@@ -1312,7 +1312,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
@@ -1331,7 +1331,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
